--- a/Market_Breadth_Monitor_nifty50.xlsx
+++ b/Market_Breadth_Monitor_nifty50.xlsx
@@ -531,11 +531,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -581,27 +581,27 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>24578.349609375</v>
+        <v>24666.900390625</v>
       </c>
       <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -637,29 +637,29 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>24666.900390625</v>
+        <v>25062.099609375</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3602796064721359</v>
+        <v>1.602143814146184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45792</v>
+        <v>45793</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -695,29 +695,29 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25062.099609375</v>
+        <v>25019.80078125</v>
       </c>
       <c r="R4" t="n">
-        <v>1.602143814146184</v>
+        <v>-0.1687760753659173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -753,32 +753,32 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>25019.80078125</v>
+        <v>24945.44921875</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1687760753659173</v>
+        <v>-0.2971708813753637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -811,32 +811,32 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>24945.44921875</v>
+        <v>24683.900390625</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.2971708813753637</v>
+        <v>-1.048483135466682</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45797</v>
+        <v>45798</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -869,29 +869,29 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>24683.900390625</v>
+        <v>24813.44921875</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.048483135466682</v>
+        <v>0.524831270888626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45798</v>
+        <v>45799</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -927,26 +927,26 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>24813.44921875</v>
+        <v>24609.69921875</v>
       </c>
       <c r="R8" t="n">
-        <v>0.524831270888626</v>
+        <v>-0.8211272774042211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45799</v>
+        <v>45800</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -985,32 +985,32 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>24609.69921875</v>
+        <v>24853.150390625</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.8211272774042211</v>
+        <v>0.9892488718005854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1043,32 +1043,32 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>24853.150390625</v>
+        <v>25001.150390625</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9892488718005854</v>
+        <v>0.5954979456279652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1101,26 +1101,26 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>25001.150390625</v>
+        <v>24826.19921875</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5954979456279652</v>
+        <v>-0.6997724870316469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45804</v>
+        <v>45805</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1159,27 +1159,27 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>24826.19921875</v>
+        <v>24752.44921875</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.6997724870316469</v>
+        <v>-0.2970652065995671</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45805</v>
+        <v>45806</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>35</v>
+      </c>
+      <c r="D13" t="n">
         <v>14</v>
       </c>
-      <c r="D13" t="n">
-        <v>36</v>
-      </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1217,29 +1217,29 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>24752.44921875</v>
+        <v>24833.599609375</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.2970652065995671</v>
+        <v>0.3278479228775888</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45806</v>
+        <v>45807</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1275,29 +1275,29 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>24833.599609375</v>
+        <v>24750.69921875</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3278479228775888</v>
+        <v>-0.333823496911434</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1333,26 +1333,26 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>24750.69921875</v>
+        <v>24716.599609375</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.333823496911434</v>
+        <v>-0.1377723072533144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1391,26 +1391,26 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>24716.599609375</v>
+        <v>24542.5</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.1377723072533144</v>
+        <v>-0.7043833380258491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1449,29 +1449,29 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>24542.5</v>
+        <v>24620.19921875</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.7043833380258491</v>
+        <v>0.3165904807986175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45812</v>
+        <v>45813</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1507,29 +1507,29 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>24620.19921875</v>
+        <v>24750.900390625</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3165904807986175</v>
+        <v>0.5308696762106768</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45813</v>
+        <v>45814</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1565,29 +1565,29 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>24750.900390625</v>
+        <v>25003.05078125</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5308696762106768</v>
+        <v>1.018752395450262</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1623,26 +1623,26 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>25003.05078125</v>
+        <v>25103.19921875</v>
       </c>
       <c r="R20" t="n">
-        <v>1.018752395450262</v>
+        <v>0.4005448710087123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L21" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1681,26 +1681,26 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>25103.19921875</v>
+        <v>25104.25</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4005448710087123</v>
+        <v>0.00418584595869298</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L22" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1739,26 +1739,26 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>25104.25</v>
+        <v>25141.400390625</v>
       </c>
       <c r="R22" t="n">
-        <v>0.00418584595869298</v>
+        <v>0.147984467271467</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>88</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="L23" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1797,26 +1797,26 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>25141.400390625</v>
+        <v>24888.19921875</v>
       </c>
       <c r="R23" t="n">
-        <v>0.147984467271467</v>
+        <v>-1.007108466278661</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1831,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>56.00000000000001</v>
+        <v>36</v>
       </c>
       <c r="L24" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1855,26 +1855,26 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>24888.19921875</v>
+        <v>24718.599609375</v>
       </c>
       <c r="R24" t="n">
-        <v>-1.007108466278661</v>
+        <v>-0.6814458847919758</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
         <v>3</v>
       </c>
-      <c r="J25" t="n">
-        <v>5</v>
-      </c>
       <c r="K25" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L25" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1913,26 +1913,26 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>24718.599609375</v>
+        <v>24946.5</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.6814458847919758</v>
+        <v>0.921979376770854</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1950,13 +1950,13 @@
         <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L26" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1971,26 +1971,26 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>24946.5</v>
+        <v>24853.400390625</v>
       </c>
       <c r="R26" t="n">
-        <v>0.921979376770854</v>
+        <v>-0.3731970792495987</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L27" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2029,26 +2029,26 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>24853.400390625</v>
+        <v>24812.05078125</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.3731970792495987</v>
+        <v>-0.1663740523433432</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2063,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>36</v>
       </c>
       <c r="L28" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2087,29 +2087,29 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>24812.05078125</v>
+        <v>24793.25</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.1663740523433432</v>
+        <v>-0.07577278241026608</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D29" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="L29" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2145,29 +2145,29 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>24793.25</v>
+        <v>25112.400390625</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.07577278241026608</v>
+        <v>1.287247095983779</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2179,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="L30" t="n">
-        <v>66</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2203,26 +2203,26 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>25112.400390625</v>
+        <v>24971.900390625</v>
       </c>
       <c r="R30" t="n">
-        <v>1.287247095983779</v>
+        <v>-0.559484548726974</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="n">
         <v>16</v>
-      </c>
-      <c r="D31" t="n">
-        <v>34</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2243,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="L31" t="n">
-        <v>57.99999999999999</v>
+        <v>64</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2261,26 +2261,26 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24971.900390625</v>
+        <v>25044.349609375</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.559484548726974</v>
+        <v>0.290122968683626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45832</v>
+        <v>45833</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="L32" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2319,29 +2319,29 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>25044.349609375</v>
+        <v>25244.75</v>
       </c>
       <c r="R32" t="n">
-        <v>0.290122968683626</v>
+        <v>0.8001820520425307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45833</v>
+        <v>45834</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2353,17 +2353,17 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>90</v>
+      </c>
+      <c r="L33" t="n">
         <v>88</v>
       </c>
-      <c r="L33" t="n">
-        <v>76</v>
-      </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
@@ -2377,29 +2377,29 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>25244.75</v>
+        <v>25549</v>
       </c>
       <c r="R33" t="n">
-        <v>0.8001820520425307</v>
+        <v>1.205201081412977</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45834</v>
+        <v>45835</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2411,17 +2411,17 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>86</v>
+      </c>
+      <c r="L34" t="n">
         <v>90</v>
       </c>
-      <c r="L34" t="n">
-        <v>88</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
@@ -2435,26 +2435,26 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>25549</v>
+        <v>25637.80078125</v>
       </c>
       <c r="R34" t="n">
-        <v>1.205201081412977</v>
+        <v>0.3475704773181043</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2469,16 +2469,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L35" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2493,26 +2493,26 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>25637.80078125</v>
+        <v>25517.05078125</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3475704773181043</v>
+        <v>-0.4709842354665206</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45838</v>
+        <v>45839</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L36" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2551,26 +2551,26 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>25517.05078125</v>
+        <v>25541.80078125</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.4709842354665206</v>
+        <v>0.09699396772837598</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45839</v>
+        <v>45840</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2591,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L37" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2609,26 +2609,26 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>25541.80078125</v>
+        <v>25453.400390625</v>
       </c>
       <c r="R37" t="n">
-        <v>0.09699396772837598</v>
+        <v>-0.3461008539769606</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45840</v>
+        <v>45841</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2643,16 +2643,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L38" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2667,32 +2667,32 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>25453.400390625</v>
+        <v>25405.30078125</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.3461008539769606</v>
+        <v>-0.188971251922454</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="n">
         <v>20</v>
       </c>
-      <c r="D39" t="n">
-        <v>30</v>
-      </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2701,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L39" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2725,32 +2725,32 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>25405.30078125</v>
+        <v>25461</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.188971251922454</v>
+        <v>0.21924250859926</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45842</v>
+        <v>45845</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2759,17 +2759,17 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>48</v>
+      </c>
+      <c r="L40" t="n">
         <v>66</v>
       </c>
-      <c r="L40" t="n">
-        <v>70</v>
-      </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
@@ -2783,32 +2783,32 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>25461</v>
+        <v>25461.30078125</v>
       </c>
       <c r="R40" t="n">
-        <v>0.21924250859926</v>
+        <v>0.001181341070655151</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C41" t="n">
+        <v>27</v>
+      </c>
+      <c r="D41" t="n">
         <v>23</v>
       </c>
-      <c r="D41" t="n">
-        <v>27</v>
-      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2820,53 +2820,53 @@
         <v>13</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L41" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M41" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>25461.30078125</v>
+        <v>25522.5</v>
       </c>
       <c r="R41" t="n">
-        <v>0.001181341070655151</v>
+        <v>0.2403617131575109</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D42" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2875,50 +2875,50 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L42" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M42" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25522.5</v>
+        <v>25476.099609375</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2403617131575109</v>
+        <v>-0.181801902732881</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2933,43 +2933,43 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
       </c>
       <c r="K43" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L43" t="n">
-        <v>74</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="M43" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>25476.099609375</v>
+        <v>25355.25</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.181801902732881</v>
+        <v>-0.4743646446198069</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2979,7 +2979,7 @@
         <v>38</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L44" t="n">
-        <v>56.00000000000001</v>
+        <v>46</v>
       </c>
       <c r="M44" t="n">
         <v>64</v>
@@ -3015,29 +3015,29 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>25355.25</v>
+        <v>25149.849609375</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.4743646446198069</v>
+        <v>-0.8100901810276007</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D45" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -3049,50 +3049,50 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L45" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M45" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25149.849609375</v>
+        <v>25082.30078125</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.8100901810276007</v>
+        <v>-0.2685854157148504</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -3107,50 +3107,50 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="L46" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M46" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>25082.30078125</v>
+        <v>25195.80078125</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.2685854157148504</v>
+        <v>0.4525103218794291</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L47" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M47" t="n">
         <v>66</v>
@@ -3189,26 +3189,26 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>25195.80078125</v>
+        <v>25212.05078125</v>
       </c>
       <c r="R47" t="n">
-        <v>0.4525103218794291</v>
+        <v>0.06449487413033861</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -3223,56 +3223,56 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L48" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M48" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>25212.05078125</v>
+        <v>25111.44921875</v>
       </c>
       <c r="R48" t="n">
-        <v>0.06449487413033861</v>
+        <v>-0.3990217351728331</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3281,56 +3281,56 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L49" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M49" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>25111.44921875</v>
+        <v>24968.400390625</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.3990217351728331</v>
+        <v>-0.5696558047242783</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D50" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3345,105 +3345,105 @@
         <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L50" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M50" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>24968.400390625</v>
+        <v>25090.69921875</v>
       </c>
       <c r="R50" t="n">
-        <v>-0.5696558047242783</v>
+        <v>0.4898144302865282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C51" t="n">
+        <v>20</v>
+      </c>
+      <c r="D51" t="n">
+        <v>30</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6</v>
+      </c>
+      <c r="K51" t="n">
         <v>32</v>
       </c>
-      <c r="D51" t="n">
-        <v>18</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>42</v>
-      </c>
       <c r="L51" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M51" t="n">
+        <v>50</v>
+      </c>
+      <c r="N51" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="O51" t="n">
         <v>62</v>
-      </c>
-      <c r="N51" t="n">
-        <v>66</v>
-      </c>
-      <c r="O51" t="n">
-        <v>64</v>
       </c>
       <c r="P51" t="n">
         <v>76</v>
       </c>
       <c r="Q51" t="n">
-        <v>25090.69921875</v>
+        <v>25060.900390625</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4898144302865282</v>
+        <v>-0.1187644388273235</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D52" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -3455,56 +3455,56 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
         <v>6</v>
       </c>
       <c r="K52" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L52" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M52" t="n">
-        <v>50</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="N52" t="n">
-        <v>57.99999999999999</v>
+        <v>62</v>
       </c>
       <c r="O52" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P52" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q52" t="n">
-        <v>25060.900390625</v>
+        <v>25219.900390625</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.1187644388273235</v>
+        <v>0.6344544590244583</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -3513,50 +3513,50 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
         <v>7</v>
       </c>
-      <c r="J53" t="n">
-        <v>6</v>
-      </c>
       <c r="K53" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L53" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M53" t="n">
         <v>56.00000000000001</v>
       </c>
       <c r="N53" t="n">
-        <v>62</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="O53" t="n">
-        <v>64</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="P53" t="n">
         <v>74</v>
       </c>
       <c r="Q53" t="n">
-        <v>25219.900390625</v>
+        <v>25062.099609375</v>
       </c>
       <c r="R53" t="n">
-        <v>0.6344544590244583</v>
+        <v>-0.6256994627491075</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -3571,50 +3571,50 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K54" t="n">
+        <v>32</v>
+      </c>
+      <c r="L54" t="n">
+        <v>24</v>
+      </c>
+      <c r="M54" t="n">
+        <v>36</v>
+      </c>
+      <c r="N54" t="n">
         <v>42</v>
-      </c>
-      <c r="L54" t="n">
-        <v>34</v>
-      </c>
-      <c r="M54" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>57.99999999999999</v>
       </c>
       <c r="O54" t="n">
         <v>57.99999999999999</v>
       </c>
       <c r="P54" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q54" t="n">
-        <v>25062.099609375</v>
+        <v>24837</v>
       </c>
       <c r="R54" t="n">
-        <v>-0.6256994627491075</v>
+        <v>-0.8981674037030651</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -3629,56 +3629,56 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K55" t="n">
+        <v>22</v>
+      </c>
+      <c r="L55" t="n">
+        <v>20</v>
+      </c>
+      <c r="M55" t="n">
         <v>32</v>
       </c>
-      <c r="L55" t="n">
-        <v>24</v>
-      </c>
-      <c r="M55" t="n">
-        <v>36</v>
-      </c>
       <c r="N55" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O55" t="n">
-        <v>57.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="P55" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q55" t="n">
-        <v>24837</v>
+        <v>24680.900390625</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.8981674037030651</v>
+        <v>-0.6284962329387578</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C56" t="n">
+        <v>35</v>
+      </c>
+      <c r="D56" t="n">
         <v>15</v>
       </c>
-      <c r="D56" t="n">
-        <v>35</v>
-      </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -3690,47 +3690,47 @@
         <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K56" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M56" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N56" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O56" t="n">
-        <v>56.00000000000001</v>
+        <v>46</v>
       </c>
       <c r="P56" t="n">
         <v>68</v>
       </c>
       <c r="Q56" t="n">
-        <v>24680.900390625</v>
+        <v>24821.099609375</v>
       </c>
       <c r="R56" t="n">
-        <v>-0.6284962329387578</v>
+        <v>0.5680474234370125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -3751,50 +3751,50 @@
         <v>14</v>
       </c>
       <c r="K57" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L57" t="n">
         <v>30</v>
       </c>
       <c r="M57" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N57" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O57" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P57" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q57" t="n">
-        <v>24821.099609375</v>
+        <v>24855.05078125</v>
       </c>
       <c r="R57" t="n">
-        <v>0.5680474234370125</v>
+        <v>0.1367835124523431</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45868</v>
+        <v>45869</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -3806,47 +3806,47 @@
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K58" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L58" t="n">
         <v>30</v>
       </c>
       <c r="M58" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N58" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O58" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P58" t="n">
         <v>64</v>
       </c>
       <c r="Q58" t="n">
-        <v>24855.05078125</v>
+        <v>24768.349609375</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1367835124523431</v>
+        <v>-0.3488271765688999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45869</v>
+        <v>45870</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -3864,53 +3864,53 @@
         <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K59" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L59" t="n">
+        <v>18</v>
+      </c>
+      <c r="M59" t="n">
         <v>30</v>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
+        <v>32</v>
+      </c>
+      <c r="O59" t="n">
         <v>36</v>
       </c>
-      <c r="N59" t="n">
-        <v>40</v>
-      </c>
-      <c r="O59" t="n">
-        <v>42</v>
-      </c>
       <c r="P59" t="n">
-        <v>64</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="Q59" t="n">
-        <v>24768.349609375</v>
+        <v>24565.349609375</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.3488271765688999</v>
+        <v>-0.8195943742782208</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45870</v>
+        <v>45873</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D60" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -3922,50 +3922,50 @@
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K60" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L60" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M60" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N60" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O60" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P60" t="n">
-        <v>56.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="Q60" t="n">
-        <v>24565.349609375</v>
+        <v>24722.75</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.8195943742782208</v>
+        <v>0.6407415043054421</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45873</v>
+        <v>45874</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -3980,47 +3980,47 @@
         <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K61" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L61" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M61" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N61" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O61" t="n">
         <v>34</v>
       </c>
       <c r="P61" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q61" t="n">
-        <v>24722.75</v>
+        <v>24649.55078125</v>
       </c>
       <c r="R61" t="n">
-        <v>0.6407415043054421</v>
+        <v>-0.2960804067104195</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45874</v>
+        <v>45875</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D62" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -4038,19 +4038,19 @@
         <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K62" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L62" t="n">
         <v>34</v>
       </c>
       <c r="M62" t="n">
+        <v>36</v>
+      </c>
+      <c r="N62" t="n">
         <v>38</v>
-      </c>
-      <c r="N62" t="n">
-        <v>42</v>
       </c>
       <c r="O62" t="n">
         <v>34</v>
@@ -4059,84 +4059,84 @@
         <v>48</v>
       </c>
       <c r="Q62" t="n">
-        <v>24649.55078125</v>
+        <v>24574.19921875</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.2960804067104195</v>
+        <v>-0.3056914228121266</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
+        <v>20</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>16</v>
+      </c>
+      <c r="K63" t="n">
+        <v>52</v>
+      </c>
+      <c r="L63" t="n">
+        <v>38</v>
+      </c>
+      <c r="M63" t="n">
+        <v>32</v>
+      </c>
+      <c r="N63" t="n">
         <v>36</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>17</v>
-      </c>
-      <c r="K63" t="n">
-        <v>44</v>
-      </c>
-      <c r="L63" t="n">
-        <v>34</v>
-      </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>36</v>
-      </c>
-      <c r="N63" t="n">
-        <v>38</v>
-      </c>
-      <c r="O63" t="n">
-        <v>34</v>
       </c>
       <c r="P63" t="n">
         <v>48</v>
       </c>
       <c r="Q63" t="n">
-        <v>24574.19921875</v>
+        <v>24596.150390625</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.3056914228121266</v>
+        <v>0.08932609229541644</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D64" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -4157,47 +4157,47 @@
         <v>16</v>
       </c>
       <c r="K64" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="L64" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M64" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N64" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O64" t="n">
         <v>36</v>
       </c>
       <c r="P64" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q64" t="n">
-        <v>24596.150390625</v>
+        <v>24363.30078125</v>
       </c>
       <c r="R64" t="n">
-        <v>0.08932609229541644</v>
+        <v>-0.9466912735407229</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45877</v>
+        <v>45880</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D65" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -4212,19 +4212,19 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K65" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L65" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M65" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N65" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O65" t="n">
         <v>36</v>
@@ -4233,87 +4233,87 @@
         <v>44</v>
       </c>
       <c r="Q65" t="n">
-        <v>24363.30078125</v>
+        <v>24585.05078125</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.9466912735407229</v>
+        <v>0.9101804471857822</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D66" t="n">
+        <v>31</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
       <c r="J66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K66" t="n">
         <v>48</v>
       </c>
       <c r="L66" t="n">
+        <v>48</v>
+      </c>
+      <c r="M66" t="n">
         <v>40</v>
       </c>
-      <c r="M66" t="n">
-        <v>36</v>
-      </c>
       <c r="N66" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O66" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P66" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q66" t="n">
-        <v>24585.05078125</v>
+        <v>24487.400390625</v>
       </c>
       <c r="R66" t="n">
-        <v>0.9101804471857822</v>
+        <v>-0.3971941790719136</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D67" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -4325,53 +4325,53 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
         <v>12</v>
       </c>
       <c r="K67" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="L67" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M67" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N67" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O67" t="n">
         <v>34</v>
       </c>
       <c r="P67" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q67" t="n">
-        <v>24487.400390625</v>
+        <v>24619.349609375</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.3971941790719136</v>
+        <v>0.5388453516712133</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D68" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -4386,50 +4386,50 @@
         <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K68" t="n">
         <v>64</v>
       </c>
       <c r="L68" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M68" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N68" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O68" t="n">
         <v>34</v>
       </c>
       <c r="P68" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q68" t="n">
-        <v>24619.349609375</v>
+        <v>24631.30078125</v>
       </c>
       <c r="R68" t="n">
-        <v>0.5388453516712133</v>
+        <v>0.04854381640710947</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -4441,22 +4441,22 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J69" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K69" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="L69" t="n">
+        <v>60</v>
+      </c>
+      <c r="M69" t="n">
+        <v>50</v>
+      </c>
+      <c r="N69" t="n">
         <v>46</v>
-      </c>
-      <c r="M69" t="n">
-        <v>44</v>
-      </c>
-      <c r="N69" t="n">
-        <v>44</v>
       </c>
       <c r="O69" t="n">
         <v>34</v>
@@ -4465,29 +4465,29 @@
         <v>38</v>
       </c>
       <c r="Q69" t="n">
-        <v>24631.30078125</v>
+        <v>24876.94921875</v>
       </c>
       <c r="R69" t="n">
-        <v>0.04854381640710947</v>
+        <v>0.9973019276634965</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4499,50 +4499,50 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J70" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K70" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L70" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M70" t="n">
         <v>50</v>
       </c>
       <c r="N70" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O70" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P70" t="n">
         <v>38</v>
       </c>
       <c r="Q70" t="n">
-        <v>24876.94921875</v>
+        <v>24980.650390625</v>
       </c>
       <c r="R70" t="n">
-        <v>0.9973019276634965</v>
+        <v>0.4168564680625764</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45888</v>
+        <v>45889</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D71" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -4557,51 +4557,51 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J71" t="n">
         <v>7</v>
       </c>
       <c r="K71" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L71" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="M71" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N71" t="n">
-        <v>52</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="O71" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P71" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q71" t="n">
-        <v>24980.650390625</v>
+        <v>25050.55078125</v>
       </c>
       <c r="R71" t="n">
-        <v>0.4168564680625764</v>
+        <v>0.2798181373661723</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C72" t="n">
+        <v>24</v>
+      </c>
+      <c r="D72" t="n">
         <v>26</v>
       </c>
-      <c r="D72" t="n">
-        <v>24</v>
-      </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
@@ -4615,50 +4615,50 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J72" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L72" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M72" t="n">
-        <v>52</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="N72" t="n">
-        <v>56.00000000000001</v>
+        <v>62</v>
       </c>
       <c r="O72" t="n">
         <v>42</v>
       </c>
       <c r="P72" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q72" t="n">
-        <v>25050.55078125</v>
+        <v>25083.75</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2798181373661723</v>
+        <v>0.1325288974278749</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -4673,50 +4673,50 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
         <v>8</v>
       </c>
-      <c r="J73" t="n">
-        <v>4</v>
-      </c>
       <c r="K73" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="L73" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M73" t="n">
-        <v>57.99999999999999</v>
+        <v>46</v>
       </c>
       <c r="N73" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O73" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P73" t="n">
         <v>42</v>
       </c>
       <c r="Q73" t="n">
-        <v>25083.75</v>
+        <v>24870.099609375</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1325288974278749</v>
+        <v>-0.8517482060098724</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45891</v>
+        <v>45894</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -4731,56 +4731,56 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J74" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K74" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L74" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M74" t="n">
+        <v>54</v>
+      </c>
+      <c r="N74" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="O74" t="n">
         <v>46</v>
-      </c>
-      <c r="N74" t="n">
-        <v>52</v>
-      </c>
-      <c r="O74" t="n">
-        <v>44</v>
       </c>
       <c r="P74" t="n">
         <v>42</v>
       </c>
       <c r="Q74" t="n">
-        <v>24870.099609375</v>
+        <v>24967.75</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.8517482060098724</v>
+        <v>0.3926417350905487</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -4789,80 +4789,80 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K75" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="L75" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M75" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="N75" t="n">
-        <v>56.00000000000001</v>
+        <v>34</v>
       </c>
       <c r="O75" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P75" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q75" t="n">
-        <v>24967.75</v>
+        <v>24712.05078125</v>
       </c>
       <c r="R75" t="n">
-        <v>0.3926417350905487</v>
+        <v>-1.024117987203488</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C76" t="n">
+        <v>12</v>
+      </c>
+      <c r="D76" t="n">
+        <v>37</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>7</v>
       </c>
-      <c r="D76" t="n">
-        <v>43</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5</v>
-      </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L76" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N76" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O76" t="n">
         <v>50</v>
@@ -4871,32 +4871,32 @@
         <v>40</v>
       </c>
       <c r="Q76" t="n">
-        <v>24712.05078125</v>
+        <v>24500.900390625</v>
       </c>
       <c r="R76" t="n">
-        <v>-1.024117987203488</v>
+        <v>-0.8544430103923584</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D77" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -4905,50 +4905,50 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K77" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M77" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N77" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O77" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P77" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q77" t="n">
-        <v>24500.900390625</v>
+        <v>24426.849609375</v>
       </c>
       <c r="R77" t="n">
-        <v>-0.8544430103923584</v>
+        <v>-0.3022369793329482</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D78" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -4963,50 +4963,50 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="L78" t="n">
-        <v>36</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="M78" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N78" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="O78" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P78" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q78" t="n">
-        <v>24426.849609375</v>
+        <v>24625.05078125</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.3022369793329482</v>
+        <v>0.8114070174605414</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -5021,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J79" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K79" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L79" t="n">
         <v>56.00000000000001</v>
@@ -5042,32 +5042,32 @@
         <v>50</v>
       </c>
       <c r="P79" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q79" t="n">
-        <v>24625.05078125</v>
+        <v>24579.599609375</v>
       </c>
       <c r="R79" t="n">
-        <v>0.8114070174605414</v>
+        <v>-0.1845729061789703</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -5079,22 +5079,22 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J80" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L80" t="n">
-        <v>56.00000000000001</v>
+        <v>60</v>
       </c>
       <c r="M80" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N80" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O80" t="n">
         <v>50</v>
@@ -5103,29 +5103,29 @@
         <v>42</v>
       </c>
       <c r="Q80" t="n">
-        <v>24579.599609375</v>
+        <v>24715.05078125</v>
       </c>
       <c r="R80" t="n">
-        <v>-0.1845729061789703</v>
+        <v>0.5510715147017065</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -5137,16 +5137,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
         <v>46</v>
       </c>
       <c r="L81" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M81" t="n">
         <v>46</v>
@@ -5155,35 +5155,35 @@
         <v>46</v>
       </c>
       <c r="O81" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P81" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q81" t="n">
-        <v>24715.05078125</v>
+        <v>24734.30078125</v>
       </c>
       <c r="R81" t="n">
-        <v>0.5510715147017065</v>
+        <v>0.07788776228048189</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D82" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J82" t="n">
         <v>3</v>
@@ -5204,13 +5204,13 @@
         <v>46</v>
       </c>
       <c r="L82" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M82" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N82" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O82" t="n">
         <v>44</v>
@@ -5219,29 +5219,29 @@
         <v>40</v>
       </c>
       <c r="Q82" t="n">
-        <v>24734.30078125</v>
+        <v>24741</v>
       </c>
       <c r="R82" t="n">
-        <v>0.07788776228048189</v>
+        <v>0.02708473067116746</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D83" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -5253,50 +5253,50 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L83" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M83" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N83" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O83" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P83" t="n">
         <v>40</v>
       </c>
       <c r="Q83" t="n">
-        <v>24741</v>
+        <v>24773.150390625</v>
       </c>
       <c r="R83" t="n">
-        <v>0.02708473067116746</v>
+        <v>0.1299478219352501</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D84" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -5311,50 +5311,50 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="L84" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M84" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N84" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O84" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P84" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q84" t="n">
-        <v>24773.150390625</v>
+        <v>24868.599609375</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1299478219352501</v>
+        <v>0.3852930178235292</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D85" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -5369,53 +5369,53 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L85" t="n">
+        <v>62</v>
+      </c>
+      <c r="M85" t="n">
+        <v>64</v>
+      </c>
+      <c r="N85" t="n">
+        <v>60</v>
+      </c>
+      <c r="O85" t="n">
+        <v>48</v>
+      </c>
+      <c r="P85" t="n">
         <v>50</v>
       </c>
-      <c r="M85" t="n">
-        <v>50</v>
-      </c>
-      <c r="N85" t="n">
-        <v>44</v>
-      </c>
-      <c r="O85" t="n">
-        <v>46</v>
-      </c>
-      <c r="P85" t="n">
-        <v>44</v>
-      </c>
       <c r="Q85" t="n">
-        <v>24868.599609375</v>
+        <v>24973.099609375</v>
       </c>
       <c r="R85" t="n">
-        <v>0.3852930178235292</v>
+        <v>0.4202086230887137</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D86" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -5427,50 +5427,50 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L86" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M86" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N86" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O86" t="n">
         <v>48</v>
       </c>
       <c r="P86" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q86" t="n">
-        <v>24973.099609375</v>
+        <v>25005.5</v>
       </c>
       <c r="R86" t="n">
-        <v>0.4202086230887137</v>
+        <v>0.1297411660218462</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D87" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -5488,47 +5488,47 @@
         <v>16</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L87" t="n">
+        <v>74</v>
+      </c>
+      <c r="M87" t="n">
+        <v>74</v>
+      </c>
+      <c r="N87" t="n">
         <v>66</v>
       </c>
-      <c r="M87" t="n">
-        <v>68</v>
-      </c>
-      <c r="N87" t="n">
-        <v>52</v>
-      </c>
       <c r="O87" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q87" t="n">
-        <v>25005.5</v>
+        <v>25114</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1297411660218462</v>
+        <v>0.4339045410009845</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D88" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -5543,50 +5543,50 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L88" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M88" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N88" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O88" t="n">
-        <v>54</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="P88" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q88" t="n">
-        <v>25114</v>
+        <v>25069.19921875</v>
       </c>
       <c r="R88" t="n">
-        <v>0.4339045410009845</v>
+        <v>-0.178389668113399</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D89" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -5601,53 +5601,53 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
       </c>
       <c r="K89" t="n">
+        <v>84</v>
+      </c>
+      <c r="L89" t="n">
+        <v>78</v>
+      </c>
+      <c r="M89" t="n">
         <v>80</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>68</v>
       </c>
-      <c r="M89" t="n">
-        <v>72</v>
-      </c>
-      <c r="N89" t="n">
-        <v>60</v>
-      </c>
       <c r="O89" t="n">
-        <v>57.99999999999999</v>
+        <v>64</v>
       </c>
       <c r="P89" t="n">
         <v>52</v>
       </c>
       <c r="Q89" t="n">
-        <v>25069.19921875</v>
+        <v>25239.099609375</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.178389668113399</v>
+        <v>0.6777256391098607</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D90" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -5659,22 +5659,22 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L90" t="n">
+        <v>80</v>
+      </c>
+      <c r="M90" t="n">
         <v>78</v>
       </c>
-      <c r="M90" t="n">
-        <v>80</v>
-      </c>
       <c r="N90" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O90" t="n">
         <v>64</v>
@@ -5683,29 +5683,29 @@
         <v>52</v>
       </c>
       <c r="Q90" t="n">
-        <v>25239.099609375</v>
+        <v>25330.25</v>
       </c>
       <c r="R90" t="n">
-        <v>0.6777256391098607</v>
+        <v>0.3611475529465391</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>34</v>
       </c>
       <c r="D91" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -5717,53 +5717,53 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J91" t="n">
         <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L91" t="n">
+        <v>88</v>
+      </c>
+      <c r="M91" t="n">
         <v>80</v>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>78</v>
       </c>
-      <c r="N91" t="n">
-        <v>72</v>
-      </c>
       <c r="O91" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P91" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q91" t="n">
-        <v>25330.25</v>
+        <v>25423.599609375</v>
       </c>
       <c r="R91" t="n">
-        <v>0.3611475529465391</v>
+        <v>0.3685301541634933</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C92" t="n">
+        <v>16</v>
+      </c>
+      <c r="D92" t="n">
         <v>34</v>
       </c>
-      <c r="D92" t="n">
-        <v>15</v>
-      </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -5778,13 +5778,13 @@
         <v>11</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="L92" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M92" t="n">
         <v>80</v>
@@ -5793,32 +5793,32 @@
         <v>78</v>
       </c>
       <c r="O92" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P92" t="n">
         <v>54</v>
       </c>
       <c r="Q92" t="n">
-        <v>25423.599609375</v>
+        <v>25327.05078125</v>
       </c>
       <c r="R92" t="n">
-        <v>0.3685301541634933</v>
+        <v>-0.379760653913841</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -5839,47 +5839,47 @@
         <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>68</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="L93" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M93" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N93" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O93" t="n">
         <v>80</v>
       </c>
       <c r="P93" t="n">
-        <v>54</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="Q93" t="n">
-        <v>25327.05078125</v>
+        <v>25202.349609375</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.379760653913841</v>
+        <v>-0.4923635718664832</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D94" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -5891,50 +5891,50 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>57.99999999999999</v>
+        <v>46</v>
       </c>
       <c r="L94" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M94" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N94" t="n">
-        <v>70</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="O94" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P94" t="n">
         <v>57.99999999999999</v>
       </c>
       <c r="Q94" t="n">
-        <v>25202.349609375</v>
+        <v>25169.5</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.4923635718664832</v>
+        <v>-0.1303434397354031</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -5949,108 +5949,108 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J95" t="n">
         <v>4</v>
       </c>
       <c r="K95" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L95" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M95" t="n">
-        <v>68</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="N95" t="n">
-        <v>56.00000000000001</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="O95" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P95" t="n">
-        <v>57.99999999999999</v>
+        <v>64</v>
       </c>
       <c r="Q95" t="n">
-        <v>25169.5</v>
+        <v>25056.900390625</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.1303434397354031</v>
+        <v>-0.447365300760838</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45924</v>
+        <v>45925</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C96" t="n">
+        <v>9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>41</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>15</v>
       </c>
-      <c r="D96" t="n">
-        <v>35</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>14</v>
-      </c>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K96" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L96" t="n">
+        <v>46</v>
+      </c>
+      <c r="M96" t="n">
         <v>52</v>
       </c>
-      <c r="M96" t="n">
-        <v>57.99999999999999</v>
-      </c>
       <c r="N96" t="n">
-        <v>57.99999999999999</v>
+        <v>48</v>
       </c>
       <c r="O96" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P96" t="n">
         <v>64</v>
       </c>
       <c r="Q96" t="n">
-        <v>25056.900390625</v>
+        <v>24890.849609375</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.447365300760838</v>
+        <v>-0.6626948212322681</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -6065,50 +6065,50 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J97" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K97" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L97" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M97" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N97" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O97" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P97" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q97" t="n">
-        <v>24890.849609375</v>
+        <v>24654.69921875</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.6626948212322681</v>
+        <v>-0.9487437927231501</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D98" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -6123,50 +6123,50 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K98" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L98" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M98" t="n">
         <v>40</v>
       </c>
       <c r="N98" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O98" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P98" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q98" t="n">
-        <v>24654.69921875</v>
+        <v>24634.900390625</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.9487437927231501</v>
+        <v>-0.08030448049409777</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D99" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -6181,53 +6181,53 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J99" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K99" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L99" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M99" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N99" t="n">
         <v>40</v>
       </c>
       <c r="O99" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P99" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q99" t="n">
-        <v>24634.900390625</v>
+        <v>24611.099609375</v>
       </c>
       <c r="R99" t="n">
-        <v>-0.08030448049409777</v>
+        <v>-0.09661407544825362</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D100" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -6239,53 +6239,53 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J100" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L100" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M100" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O100" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P100" t="n">
-        <v>64</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="Q100" t="n">
-        <v>24611.099609375</v>
+        <v>24836.30078125</v>
       </c>
       <c r="R100" t="n">
-        <v>-0.09661407544825362</v>
+        <v>0.9150390492475902</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45931</v>
+        <v>45933</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D101" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -6297,53 +6297,53 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J101" t="n">
         <v>7</v>
       </c>
       <c r="K101" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L101" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M101" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N101" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O101" t="n">
-        <v>60</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="P101" t="n">
-        <v>57.99999999999999</v>
+        <v>62</v>
       </c>
       <c r="Q101" t="n">
-        <v>24836.30078125</v>
+        <v>24894.25</v>
       </c>
       <c r="R101" t="n">
-        <v>0.9150390492475902</v>
+        <v>0.2333246776981657</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D102" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -6358,50 +6358,50 @@
         <v>13</v>
       </c>
       <c r="J102" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>40</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="L102" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M102" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N102" t="n">
         <v>54</v>
       </c>
       <c r="O102" t="n">
-        <v>56.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="P102" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q102" t="n">
-        <v>24894.25</v>
+        <v>25077.650390625</v>
       </c>
       <c r="R102" t="n">
-        <v>0.2333246776981657</v>
+        <v>0.7367178791287232</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45936</v>
+        <v>45937</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D103" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -6413,53 +6413,53 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J103" t="n">
         <v>3</v>
       </c>
       <c r="K103" t="n">
+        <v>70</v>
+      </c>
+      <c r="L103" t="n">
+        <v>44</v>
+      </c>
+      <c r="M103" t="n">
         <v>57.99999999999999</v>
       </c>
-      <c r="L103" t="n">
-        <v>42</v>
-      </c>
-      <c r="M103" t="n">
-        <v>52</v>
-      </c>
       <c r="N103" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O103" t="n">
         <v>50</v>
       </c>
       <c r="P103" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q103" t="n">
-        <v>25077.650390625</v>
+        <v>25108.30078125</v>
       </c>
       <c r="R103" t="n">
-        <v>0.7367178791287232</v>
+        <v>0.1222219392469803</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D104" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -6471,53 +6471,53 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K104" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L104" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M104" t="n">
-        <v>57.99999999999999</v>
+        <v>50</v>
       </c>
       <c r="N104" t="n">
-        <v>60</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="O104" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P104" t="n">
         <v>64</v>
       </c>
       <c r="Q104" t="n">
-        <v>25108.30078125</v>
+        <v>25046.150390625</v>
       </c>
       <c r="R104" t="n">
-        <v>0.1222219392469803</v>
+        <v>-0.2475292580189747</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D105" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -6529,50 +6529,50 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="L105" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M105" t="n">
-        <v>50</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="N105" t="n">
-        <v>56.00000000000001</v>
+        <v>66</v>
       </c>
       <c r="O105" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P105" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q105" t="n">
-        <v>25046.150390625</v>
+        <v>25181.80078125</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.2475292580189747</v>
+        <v>0.5416017571936882</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D106" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -6587,50 +6587,50 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K106" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="L106" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="M106" t="n">
         <v>57.99999999999999</v>
       </c>
       <c r="N106" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O106" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P106" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q106" t="n">
-        <v>25181.80078125</v>
+        <v>25285.349609375</v>
       </c>
       <c r="R106" t="n">
-        <v>0.5416017571936882</v>
+        <v>0.4112050167679016</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45940</v>
+        <v>45943</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D107" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -6645,114 +6645,114 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K107" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L107" t="n">
-        <v>70</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="M107" t="n">
         <v>57.99999999999999</v>
       </c>
       <c r="N107" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O107" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P107" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q107" t="n">
-        <v>25285.349609375</v>
+        <v>25227.349609375</v>
       </c>
       <c r="R107" t="n">
-        <v>0.4112050167679016</v>
+        <v>-0.2293818392706592</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D108" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K108" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L108" t="n">
-        <v>57.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="M108" t="n">
         <v>57.99999999999999</v>
       </c>
       <c r="N108" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O108" t="n">
         <v>46</v>
       </c>
       <c r="P108" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q108" t="n">
-        <v>25227.349609375</v>
+        <v>25145.5</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.2293818392706592</v>
+        <v>-0.3244479132464395</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D109" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -6761,53 +6761,53 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K109" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="L109" t="n">
-        <v>56.00000000000001</v>
+        <v>66</v>
       </c>
       <c r="M109" t="n">
+        <v>72</v>
+      </c>
+      <c r="N109" t="n">
+        <v>70</v>
+      </c>
+      <c r="O109" t="n">
+        <v>48</v>
+      </c>
+      <c r="P109" t="n">
         <v>57.99999999999999</v>
       </c>
-      <c r="N109" t="n">
-        <v>64</v>
-      </c>
-      <c r="O109" t="n">
-        <v>46</v>
-      </c>
-      <c r="P109" t="n">
-        <v>60</v>
-      </c>
       <c r="Q109" t="n">
-        <v>25145.5</v>
+        <v>25323.55078125</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.3244479132464395</v>
+        <v>0.7080820872521931</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45945</v>
+        <v>45946</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D110" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -6819,114 +6819,114 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J110" t="n">
         <v>4</v>
       </c>
       <c r="K110" t="n">
+        <v>90</v>
+      </c>
+      <c r="L110" t="n">
+        <v>90</v>
+      </c>
+      <c r="M110" t="n">
+        <v>78</v>
+      </c>
+      <c r="N110" t="n">
         <v>74</v>
       </c>
-      <c r="L110" t="n">
-        <v>66</v>
-      </c>
-      <c r="M110" t="n">
-        <v>72</v>
-      </c>
-      <c r="N110" t="n">
-        <v>70</v>
-      </c>
       <c r="O110" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P110" t="n">
         <v>57.99999999999999</v>
       </c>
       <c r="Q110" t="n">
-        <v>25323.55078125</v>
+        <v>25585.30078125</v>
       </c>
       <c r="R110" t="n">
-        <v>0.7080820872521931</v>
+        <v>1.033622821147984</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D111" t="n">
+        <v>21</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
         <v>7</v>
       </c>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>13</v>
-      </c>
       <c r="J111" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K111" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L111" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M111" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N111" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O111" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P111" t="n">
-        <v>57.99999999999999</v>
+        <v>54</v>
       </c>
       <c r="Q111" t="n">
-        <v>25585.30078125</v>
+        <v>25709.849609375</v>
       </c>
       <c r="R111" t="n">
-        <v>1.033622821147984</v>
+        <v>0.4867983737610659</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D112" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -6935,50 +6935,50 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J112" t="n">
         <v>6</v>
       </c>
       <c r="K112" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L112" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M112" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N112" t="n">
         <v>80</v>
       </c>
       <c r="O112" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P112" t="n">
         <v>54</v>
       </c>
       <c r="Q112" t="n">
-        <v>25709.849609375</v>
+        <v>25843.150390625</v>
       </c>
       <c r="R112" t="n">
-        <v>0.4867983737610659</v>
+        <v>0.5184813729964155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D113" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -6993,16 +6993,16 @@
         <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J113" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K113" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L113" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M113" t="n">
         <v>82</v>
@@ -7014,29 +7014,29 @@
         <v>70</v>
       </c>
       <c r="P113" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q113" t="n">
-        <v>25843.150390625</v>
+        <v>25868.599609375</v>
       </c>
       <c r="R113" t="n">
-        <v>0.5184813729964155</v>
+        <v>0.09847568259027106</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D114" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -7051,53 +7051,53 @@
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
+        <v>78</v>
+      </c>
+      <c r="L114" t="n">
         <v>84</v>
       </c>
-      <c r="L114" t="n">
-        <v>90</v>
-      </c>
       <c r="M114" t="n">
+        <v>84</v>
+      </c>
+      <c r="N114" t="n">
         <v>82</v>
       </c>
-      <c r="N114" t="n">
-        <v>80</v>
-      </c>
       <c r="O114" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P114" t="n">
-        <v>52</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="Q114" t="n">
-        <v>25868.599609375</v>
+        <v>25891.400390625</v>
       </c>
       <c r="R114" t="n">
-        <v>0.09847568259027106</v>
+        <v>0.08814076368377499</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D115" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -7109,53 +7109,53 @@
         <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
+        <v>62</v>
+      </c>
+      <c r="L115" t="n">
         <v>78</v>
       </c>
-      <c r="L115" t="n">
-        <v>84</v>
-      </c>
       <c r="M115" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N115" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O115" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P115" t="n">
         <v>56.00000000000001</v>
       </c>
       <c r="Q115" t="n">
-        <v>25891.400390625</v>
+        <v>25795.150390625</v>
       </c>
       <c r="R115" t="n">
-        <v>0.08814076368377499</v>
+        <v>-0.3717450525961175</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D116" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -7167,50 +7167,50 @@
         <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L116" t="n">
         <v>78</v>
       </c>
       <c r="M116" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N116" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O116" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P116" t="n">
-        <v>56.00000000000001</v>
+        <v>60</v>
       </c>
       <c r="Q116" t="n">
-        <v>25795.150390625</v>
+        <v>25966.05078125</v>
       </c>
       <c r="R116" t="n">
-        <v>-0.3717450525961175</v>
+        <v>0.6625291500029773</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D117" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -7225,50 +7225,50 @@
         <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>68</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="L117" t="n">
         <v>78</v>
       </c>
       <c r="M117" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N117" t="n">
         <v>82</v>
       </c>
       <c r="O117" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P117" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q117" t="n">
-        <v>25966.05078125</v>
+        <v>25936.19921875</v>
       </c>
       <c r="R117" t="n">
-        <v>0.6625291500029773</v>
+        <v>-0.1149638146805021</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D118" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -7283,50 +7283,50 @@
         <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>57.99999999999999</v>
+        <v>62</v>
       </c>
       <c r="L118" t="n">
         <v>78</v>
       </c>
       <c r="M118" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N118" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O118" t="n">
         <v>80</v>
       </c>
       <c r="P118" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q118" t="n">
-        <v>25936.19921875</v>
+        <v>26053.900390625</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.1149638146805021</v>
+        <v>0.4538104094678141</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D119" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -7341,111 +7341,111 @@
         <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
       </c>
       <c r="K119" t="n">
+        <v>52</v>
+      </c>
+      <c r="L119" t="n">
         <v>62</v>
       </c>
-      <c r="L119" t="n">
-        <v>78</v>
-      </c>
       <c r="M119" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N119" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O119" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P119" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q119" t="n">
-        <v>26053.900390625</v>
+        <v>25877.849609375</v>
       </c>
       <c r="R119" t="n">
-        <v>0.4538104094678141</v>
+        <v>-0.6757175647810088</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
+        <v>41</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>19</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
         <v>38</v>
       </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>25</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="n">
+      <c r="L120" t="n">
         <v>52</v>
       </c>
-      <c r="L120" t="n">
-        <v>62</v>
-      </c>
       <c r="M120" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N120" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O120" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P120" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q120" t="n">
-        <v>25877.849609375</v>
+        <v>25722.099609375</v>
       </c>
       <c r="R120" t="n">
-        <v>-0.6757175647810088</v>
+        <v>-0.6018660837397216</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D121" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -7457,53 +7457,53 @@
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L121" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M121" t="n">
         <v>60</v>
       </c>
       <c r="N121" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O121" t="n">
         <v>80</v>
       </c>
       <c r="P121" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q121" t="n">
-        <v>25722.099609375</v>
+        <v>25763.349609375</v>
       </c>
       <c r="R121" t="n">
-        <v>-0.6018660837397216</v>
+        <v>0.1603679350692166</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D122" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -7515,50 +7515,50 @@
         <v>1</v>
       </c>
       <c r="I122" t="n">
+        <v>13</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" t="n">
         <v>16</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="n">
-        <v>34</v>
-      </c>
       <c r="L122" t="n">
+        <v>46</v>
+      </c>
+      <c r="M122" t="n">
         <v>54</v>
       </c>
-      <c r="M122" t="n">
-        <v>60</v>
-      </c>
       <c r="N122" t="n">
-        <v>64</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="O122" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P122" t="n">
         <v>74</v>
       </c>
       <c r="Q122" t="n">
-        <v>25763.349609375</v>
+        <v>25597.650390625</v>
       </c>
       <c r="R122" t="n">
-        <v>0.1603679350692166</v>
+        <v>-0.6431586779760301</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -7573,56 +7573,52 @@
         <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K123" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M123" t="n">
         <v>54</v>
       </c>
       <c r="N123" t="n">
-        <v>57.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="O123" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P123" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>25597.650390625</v>
-      </c>
-      <c r="R123" t="n">
-        <v>-0.6431586779760301</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -7631,76 +7627,80 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K124" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L124" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M124" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N124" t="n">
-        <v>56.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="O124" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P124" t="n">
-        <v>72</v>
-      </c>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
+        <v>74</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>25509.69921875</v>
+      </c>
+      <c r="R124" t="n">
+        <v>-0.3435908004556953</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D125" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>9</v>
+      </c>
+      <c r="J125" t="n">
         <v>3</v>
       </c>
-      <c r="G125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>10</v>
-      </c>
-      <c r="J125" t="n">
-        <v>4</v>
-      </c>
       <c r="K125" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M125" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N125" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O125" t="n">
         <v>60</v>
@@ -7709,26 +7709,26 @@
         <v>74</v>
       </c>
       <c r="Q125" t="n">
-        <v>25509.69921875</v>
+        <v>25492.30078125</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.3435908004556953</v>
+        <v>-0.06820322478444663</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D126" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -7743,59 +7743,59 @@
         <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J126" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K126" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="L126" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M126" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N126" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O126" t="n">
-        <v>60</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="P126" t="n">
         <v>74</v>
       </c>
       <c r="Q126" t="n">
-        <v>25492.30078125</v>
+        <v>25574.349609375</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.06820322478444663</v>
+        <v>0.3218572887126347</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D127" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
@@ -7804,108 +7804,108 @@
         <v>10</v>
       </c>
       <c r="J127" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K127" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L127" t="n">
         <v>42</v>
       </c>
       <c r="M127" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N127" t="n">
         <v>54</v>
       </c>
       <c r="O127" t="n">
-        <v>57.99999999999999</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="P127" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Q127" t="n">
-        <v>25574.349609375</v>
+        <v>25694.94921875</v>
       </c>
       <c r="R127" t="n">
-        <v>0.3218572887126347</v>
+        <v>0.4715647170584925</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45972</v>
+        <v>45973</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D128" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J128" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K128" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L128" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M128" t="n">
-        <v>52</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="N128" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="O128" t="n">
         <v>54</v>
       </c>
-      <c r="O128" t="n">
-        <v>56.00000000000001</v>
-      </c>
       <c r="P128" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q128" t="n">
-        <v>25694.94921875</v>
+        <v>25875.80078125</v>
       </c>
       <c r="R128" t="n">
-        <v>0.4715647170584925</v>
+        <v>0.7038409025849734</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45973</v>
+        <v>45974</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -7914,53 +7914,53 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K129" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="L129" t="n">
+        <v>48</v>
+      </c>
+      <c r="M129" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="N129" t="n">
         <v>60</v>
       </c>
-      <c r="L129" t="n">
-        <v>50</v>
-      </c>
-      <c r="M129" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="N129" t="n">
-        <v>57.99999999999999</v>
-      </c>
       <c r="O129" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P129" t="n">
         <v>72</v>
       </c>
       <c r="Q129" t="n">
-        <v>25875.80078125</v>
+        <v>25879.150390625</v>
       </c>
       <c r="R129" t="n">
-        <v>0.7038409025849734</v>
+        <v>0.01294494962036374</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D130" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -7975,34 +7975,34 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K130" t="n">
+        <v>70</v>
+      </c>
+      <c r="L130" t="n">
+        <v>50</v>
+      </c>
+      <c r="M130" t="n">
+        <v>60</v>
+      </c>
+      <c r="N130" t="n">
         <v>56.00000000000001</v>
-      </c>
-      <c r="L130" t="n">
-        <v>48</v>
-      </c>
-      <c r="M130" t="n">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="N130" t="n">
-        <v>60</v>
       </c>
       <c r="O130" t="n">
         <v>52</v>
       </c>
       <c r="P130" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q130" t="n">
-        <v>25879.150390625</v>
+        <v>25910.05078125</v>
       </c>
       <c r="R130" t="n">
-        <v>0.01294494962036374</v>
+        <v>0.1194026471448284</v>
       </c>
     </row>
   </sheetData>
